--- a/landing/landinginfo/belgrano.xlsx
+++ b/landing/landinginfo/belgrano.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\goldenbike4\landing\landinginfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48BB27F-FDE8-46AE-9CED-150CCF539F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56064E10-ABF0-4591-9391-02B36FC19A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="4185" windowWidth="30345" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>lugar</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>hf_franquicia_goldenbike.webp</t>
+  </si>
+  <si>
+    <t>imagenmobile</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,10 +428,10 @@
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="131.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="145.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +450,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -467,8 +473,11 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -476,7 +485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -484,7 +493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -492,7 +501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -500,7 +509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -508,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
